--- a/ActivityCommon.xlsx
+++ b/ActivityCommon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magictavern/Desktop/Work-WY/config临时备份/大宅活动_change/20201210/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magictavern/Desktop/Work-WY/GitTest/gittest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8BE32E-E7F8-BD4D-95B8-BF8429C9C650}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B5EA2-C883-4B41-8CFA-00A4481297B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-620" windowWidth="38400" windowHeight="21140" tabRatio="662" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="662" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityMapItem" sheetId="6" r:id="rId1"/>
@@ -1601,7 +1601,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>Microsoft Office User:</t>
@@ -1611,7 +1610,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="175">
   <si>
     <t>DontOutput</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2293,12 +2291,16 @@
     <t>["TimeLimitedDecor","DailyWinEvent","Halloween2020","Christmas2020","Hinamatsuri2021"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>"Hinamatsuri2021Sale2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2489,6 +2491,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3612,7 +3627,7 @@
   <dimension ref="A1:XFD91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
@@ -23495,13 +23510,42 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="13">
+        <v>88</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>99999</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="E91"/>
@@ -23515,7 +23559,7 @@
   <conditionalFormatting sqref="B22:B23">
     <cfRule type="duplicateValues" dxfId="38" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B1048576 B47:B68 B72:B73 B24:B25 D47:D71 B45 B37:B40 B42:B43 B76 B78:B79 B1 B27:B35 D12:D17 D39 B8 B10:B21">
+  <conditionalFormatting sqref="B91:B1048576 B47:B68 B72:B73 B24:B25 D47:D71 B45 B37:B40 B42:B43 B76 B78:B79 B1 B27:B35 D12:D17 D39 B8 B10:B21">
     <cfRule type="duplicateValues" dxfId="37" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
@@ -23626,7 +23670,7 @@
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
+  <conditionalFormatting sqref="B89:B90">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
